--- a/UDM/UDM_Guidelines.xlsx
+++ b/UDM/UDM_Guidelines.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSSO\AutomatingRequirementChecks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSSO\AutomatingRequirementChecks\UDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE64FAC-63A6-4F98-9A72-8DF0476D4994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3718E0-2217-4A24-AF86-87C233D2DAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23808" yWindow="348" windowWidth="20244" windowHeight="11892" xr2:uid="{9CF28118-4D81-4FA5-BED1-96EAA5901EBC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9CF28118-4D81-4FA5-BED1-96EAA5901EBC}"/>
   </bookViews>
   <sheets>
     <sheet name="UDM Requirements" sheetId="2" r:id="rId1"/>
@@ -10818,7 +10818,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
